--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641979.4357842564</v>
+        <v>639722.4138751734</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>340.5269631950236</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>242.9491860401521</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>248.0596779397532</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>56.13154561063534</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>208.9130318507781</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>344.248554932899</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.8808934717672</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>278.7528771643809</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>354.3227626794444</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>198.5424032384316</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>147.3596012393433</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>109.7472660450982</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>43.54113333379264</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>11.64558632322169</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>17.75171326570618</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868246976</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734101331</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744713</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>71.94245653172815</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>11.168189153341</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>53.82704427691698</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247759</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734026365</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>94.35006384922276</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.13931750950127</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.07852635745797</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>69.16121449564767</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>68.59371373186879</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.264199955998777</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>36.41670903610023</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.5730391207945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581634</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345255</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>78.33578755949056</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877634</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172071</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354222</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481852</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006315</v>
+        <v>224.6534001006314</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.6043182994467</v>
+        <v>217.528398063689</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996195</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.683768698139</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.683768698139</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.683768698139</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>808.8955160998948</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>397.9096113102873</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2275.568385110017</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1922.799729839902</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1922.799729839902</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>1532.660397864091</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5636529541582</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.3415311720269</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C5" t="n">
         <v>632.3182666762914</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4653,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C7" t="n">
-        <v>344.90437809669</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D7" t="n">
-        <v>344.90437809669</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.927233509</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.927233509</v>
+        <v>2054.523217580367</v>
       </c>
       <c r="D8" t="n">
-        <v>1317.927233509</v>
+        <v>1696.257518973617</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1310.469266375372</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186806</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843235</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573121</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573121</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573121</v>
+        <v>2423.485734520779</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.5811021474123</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>527.5811021474123</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>527.5811021474123</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>527.5811021474123</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X10" t="n">
-        <v>527.5811021474123</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.5811021474123</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,22 +5045,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.7238607267859</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C13" t="n">
-        <v>550.787677798879</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>550.787677798879</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5212,19 +5212,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
         <v>1734.576850674229</v>
@@ -5236,13 +5236,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>901.3723255570254</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570256</v>
+        <v>673.3827746590081</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.3723255570256</v>
+        <v>673.3827746590081</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,22 +5279,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>901.0652231938166</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.099436442225</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.5459590456827</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6097761177758</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1152.194423875922</v>
+        <v>1288.206478295168</v>
       </c>
       <c r="W16" t="n">
-        <v>1152.194423875922</v>
+        <v>998.7893082582077</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.194423875922</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y16" t="n">
-        <v>1152.194423875922</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.56914656307</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811478</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483401</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3070.887536710045</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.860007589381</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4287.215095036326</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973119</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161849</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549336</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494781</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763631</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089812</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468487</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426844</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902946</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549545</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.95810714206</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.52022063554</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313395</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447811</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216068</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487867</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282334</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.80810951738</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>487.6897527103526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>487.6897527103526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>487.6897527103526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442056</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927011</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598113</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1118.12034758214</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>890.1307966841223</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>669.3382175405923</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,49 +5735,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,16 +5832,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689404</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,25 +5908,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104704</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208135</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838529</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858355</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.0653626991801</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.56914656307</v>
       </c>
       <c r="L23" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811478</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2274.668463554312</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780957</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660293</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6051,43 +6051,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426844</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902946</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549545</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157125</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="C25" t="n">
-        <v>492.7083461157125</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="D25" t="n">
-        <v>342.5917067033768</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>342.5917067033768</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>195.7017592054663</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442056</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927011</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501052</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626695</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208085</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>709.686441383848</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894823</v>
+        <v>709.686441383848</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459521</v>
+        <v>488.8938622403178</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,22 +6227,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M26" t="n">
-        <v>2628.734306600803</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.2066409118286</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>560.2704579839217</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
         <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6388,16 +6388,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1903.738894026463</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1903.738894026463</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1903.738894026463</v>
+        <v>1796.653196240365</v>
       </c>
       <c r="U28" t="n">
-        <v>1903.738894026463</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="V28" t="n">
-        <v>1649.054405820576</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W28" t="n">
-        <v>1359.637235783616</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X28" t="n">
-        <v>1131.647684885598</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>910.8551057420683</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>713.5009252592428</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="C31" t="n">
-        <v>713.5009252592428</v>
+        <v>312.7607075579277</v>
       </c>
       <c r="D31" t="n">
-        <v>563.384285846907</v>
+        <v>312.7607075579277</v>
       </c>
       <c r="E31" t="n">
-        <v>415.4711922645139</v>
+        <v>164.8476139755346</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5812447666035</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>100.8784081413225</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y31" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,49 +6701,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4214.71332733116</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4673.191529840148</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.4807149410335</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410335</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>132.3455890303138</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>132.3455890303138</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570251</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590077</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y34" t="n">
-        <v>540.4807149410335</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>888.4135721382786</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2317.998088216516</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.115919812689</v>
+        <v>467.357284602111</v>
       </c>
       <c r="C37" t="n">
-        <v>411.2466614185251</v>
+        <v>467.357284602111</v>
       </c>
       <c r="D37" t="n">
-        <v>262.1969465399324</v>
+        <v>467.357284602111</v>
       </c>
       <c r="E37" t="n">
-        <v>262.1969465399324</v>
+        <v>320.5111155534611</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399324</v>
+        <v>174.688092589294</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>174.688092589294</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308517</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152494</v>
+        <v>346.7622353152498</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992671</v>
+        <v>664.3677264992676</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834338</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275725</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.39982593166</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100841</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988877</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988877</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988877</v>
       </c>
       <c r="T37" t="n">
-        <v>1964.709007988876</v>
+        <v>1744.009317092146</v>
       </c>
       <c r="U37" t="n">
-        <v>1676.673065648263</v>
+        <v>1455.973374751533</v>
       </c>
       <c r="V37" t="n">
-        <v>1423.055501976119</v>
+        <v>1202.355811079389</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.705256472901</v>
+        <v>914.005565576172</v>
       </c>
       <c r="X37" t="n">
-        <v>907.7826301086269</v>
+        <v>687.0829392118978</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.6974601091856</v>
+        <v>467.357284602111</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7178,19 +7178,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>3763.957685256236</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1287.040180767972</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2265.590483597801</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,7 +7807,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>272.8828616575895</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>285.6623071682325</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>83.1672211894936</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>185.3870697685979</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.830180948076304e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9404,22 +9404,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>36.48628322061973</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>185.3870697685977</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.496531173600829e-12</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>335.7869470069527</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>404.5002992370401</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>46.30618790178822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>103.7862464855144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>410.4190035206668</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>411.0304280899003</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>102.8529310510272</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>50.84927212317575</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>198.7154374299955</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>374.169394802195</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70.08471413683912</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>102.8928293127765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>240.4920570006063</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>207.957942123331</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605697071</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>214.5805418048628</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>164.7576090751778</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>85.48191633271453</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.88649074952696</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.85362631258936</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>150.3877347805215</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>76.82733429106247</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>139.490814958322</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,10 +24886,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>59.93571137373786</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.01161423130031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935315</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.190565810222</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298066</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345256</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706224</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>65.36297206642443</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143247</v>
+        <v>95.2961651214323</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164171</v>
+        <v>87.87589738164154</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430361</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.92407976424251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.913225216616411e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1064183.834966471</v>
+        <v>1064183.834966472</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1064183.834966471</v>
+        <v>1064183.834966472</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1064183.834966471</v>
+        <v>1064183.834966472</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="D2" t="n">
-        <v>389994.8406855346</v>
-      </c>
       <c r="E2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426341</v>
       </c>
       <c r="F2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="G2" t="n">
-        <v>377227.6975426341</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="H2" t="n">
         <v>377227.6975426342</v>
       </c>
       <c r="I2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="J2" t="n">
+        <v>377227.6975426338</v>
+      </c>
+      <c r="K2" t="n">
         <v>377227.6975426342</v>
       </c>
-      <c r="J2" t="n">
-        <v>377227.6975426342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>377227.697542634</v>
-      </c>
       <c r="L2" t="n">
-        <v>377227.6975426341</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="M2" t="n">
         <v>377514.7720129443</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="P2" t="n">
         <v>389994.8406855346</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.011341013266551e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.089219378831331e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.871970151279434e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925946</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696694</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414957</v>
+        <v>36735.10506414939</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231919009</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231919008</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811459</v>
+        <v>18496.05294811466</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955464</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,43 +26522,43 @@
         <v>-466180.8034495475</v>
       </c>
       <c r="C6" t="n">
-        <v>123787.0757649971</v>
+        <v>123787.0757649972</v>
       </c>
       <c r="D6" t="n">
         <v>123787.0757649971</v>
       </c>
       <c r="E6" t="n">
-        <v>-464681.7270236765</v>
+        <v>-464748.9225139018</v>
       </c>
       <c r="F6" t="n">
-        <v>262695.6869697306</v>
+        <v>262628.4914795044</v>
       </c>
       <c r="G6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795061</v>
       </c>
       <c r="H6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795027</v>
       </c>
       <c r="I6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795065</v>
       </c>
       <c r="J6" t="n">
-        <v>86272.4677771376</v>
+        <v>86205.27228690987</v>
       </c>
       <c r="K6" t="n">
-        <v>262695.6869697304</v>
+        <v>262628.4914795047</v>
       </c>
       <c r="L6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795044</v>
       </c>
       <c r="M6" t="n">
-        <v>132059.0834156058</v>
+        <v>131993.3988436446</v>
       </c>
       <c r="N6" t="n">
-        <v>219321.4113098739</v>
+        <v>219321.4113098742</v>
       </c>
       <c r="O6" t="n">
-        <v>256056.5163740235</v>
+        <v>256056.5163740236</v>
       </c>
       <c r="P6" t="n">
         <v>256056.5163740235</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018696</v>
+        <v>45.91888133018674</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.262530833145239e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.728484105318785e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>73.25720682577139</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>84.80307242998276</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>38.22219630222452</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>169.5781097784018</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>156.3598599202294</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>25.48254574557006</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>14.553069174802</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>4.097438849949839</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>103.1774929078809</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>52.55328306226704</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>87.9805950981594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>78.35005414969382</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405609</v>
+        <v>1.056255288405794</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970239</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970239</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>780.9358625458085</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>622.853593723633</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>481.9292074088655</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126564</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923307</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302252</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.648759824894</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882176</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908531</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>436.1813745723164</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222421</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525794</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306594</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675394</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>588.7881186335314</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126564</v>
       </c>
       <c r="L23" t="n">
-        <v>674.9245771183485</v>
+        <v>455.5901143923307</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>724.3081855988229</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.648759824894</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882176</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908531</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037185</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222421</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525794</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306595</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>888.0887824198642</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>956.8021346499515</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>105.919386444013</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>440.9775330409149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>949.3401193508936</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147183</v>
+        <v>46.63467190147202</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327252</v>
+        <v>207.1039148327254</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586039</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818895</v>
+        <v>348.6896346818896</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559459</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110454</v>
+        <v>303.4093855110456</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.0133264335162</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629927</v>
+        <v>79.45049382629945</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>963.3322635028118</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>501.614917270399</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>506.4393865155079</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>751.017272842907</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37798,10 +37798,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>926.4712302151065</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
